--- a/reports/resnet18_23_no_MMTM/prediction/4/probability_val_4.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/4/probability_val_4.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5533305406570435</v>
+        <v>0.7200980186462402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4466694295406342</v>
+        <v>0.2799019515514374</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7782084345817566</v>
+        <v>0.8546597957611084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2217915803194046</v>
+        <v>0.1453401744365692</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8845454454421997</v>
+        <v>0.8875163793563843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1154545694589615</v>
+        <v>0.1124836280941963</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3013533353805542</v>
+        <v>0.5339522361755371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6986466646194458</v>
+        <v>0.4660477638244629</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3622090816497803</v>
+        <v>0.5254393815994263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6377909183502197</v>
+        <v>0.4745606184005737</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.926746129989624</v>
+        <v>0.9490247964859009</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07325384020805359</v>
+        <v>0.0509752631187439</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1639641225337982</v>
+        <v>0.2378950417041779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8360358476638794</v>
+        <v>0.7621049880981445</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09024530649185181</v>
+        <v>0.109453096985817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9097546339035034</v>
+        <v>0.8905469179153442</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2219241261482239</v>
+        <v>0.2352113425731659</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7780758738517761</v>
+        <v>0.7647886872291565</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3930281400680542</v>
+        <v>0.463509202003479</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6069718599319458</v>
+        <v>0.536490797996521</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5931140184402466</v>
+        <v>0.5502715110778809</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4068859815597534</v>
+        <v>0.4497284889221191</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1646898686885834</v>
+        <v>0.09809968620538712</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8353101015090942</v>
+        <v>0.9019002914428711</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0916355699300766</v>
+        <v>0.2869682908058167</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9083644151687622</v>
+        <v>0.7130317091941833</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1075218915939331</v>
+        <v>0.1588752865791321</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8924781084060669</v>
+        <v>0.8411246538162231</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2859916090965271</v>
+        <v>0.232841432094574</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7140083312988281</v>
+        <v>0.767158567905426</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1962341517210007</v>
+        <v>0.1892440617084503</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8037658333778381</v>
+        <v>0.8107559680938721</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07585100829601288</v>
+        <v>0.04751040786504745</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9241489171981812</v>
+        <v>0.9524896144866943</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6450051665306091</v>
+        <v>0.7065110206604004</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3549948930740356</v>
+        <v>0.2934889495372772</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09105479717254639</v>
+        <v>0.2321632206439972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9089452028274536</v>
+        <v>0.7678368091583252</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2346928864717484</v>
+        <v>0.2400193810462952</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7653071284294128</v>
+        <v>0.7599806785583496</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
